--- a/Tabela  1c - Total de nascimentos por fontes.xlsx
+++ b/Tabela  1c - Total de nascimentos por fontes.xlsx
@@ -429,7 +429,7 @@
         <v>44530</v>
       </c>
       <c r="C5">
-        <v>44716</v>
+        <v>44249</v>
       </c>
       <c r="D5">
         <v>43078</v>
@@ -440,10 +440,10 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>46122</v>
+        <v>44721</v>
       </c>
       <c r="C6">
-        <v>44664</v>
+        <v>45124</v>
       </c>
       <c r="D6">
         <v>44406</v>
@@ -454,10 +454,10 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>43340</v>
+        <v>46122</v>
       </c>
       <c r="C7">
-        <v>44677</v>
+        <v>44728</v>
       </c>
       <c r="D7">
         <v>45095</v>
@@ -468,10 +468,10 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>44568</v>
+        <v>43340</v>
       </c>
       <c r="C8">
-        <v>44034</v>
+        <v>44677</v>
       </c>
       <c r="D8">
         <v>42755</v>
@@ -482,10 +482,10 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>44195</v>
+        <v>44568</v>
       </c>
       <c r="C9">
-        <v>43728</v>
+        <v>44034</v>
       </c>
       <c r="D9">
         <v>44484</v>
@@ -496,10 +496,10 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>42422</v>
+        <v>44195</v>
       </c>
       <c r="C10">
-        <v>41993</v>
+        <v>43728</v>
       </c>
       <c r="D10">
         <v>44364</v>
@@ -510,10 +510,10 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>39361</v>
+        <v>42422</v>
       </c>
       <c r="C11">
-        <v>39939</v>
+        <v>41993</v>
       </c>
       <c r="D11">
         <v>44210</v>
@@ -524,7 +524,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>38035</v>
+        <v>39361</v>
       </c>
       <c r="D12">
         <v>44045</v>
